--- a/results_final/sigma_MM.xlsx
+++ b/results_final/sigma_MM.xlsx
@@ -519,91 +519,91 @@
         <v>0.3905760977195454</v>
       </c>
       <c r="D2">
-        <v>0.316904470309562</v>
+        <v>0.3169239032848553</v>
       </c>
       <c r="E2">
-        <v>0.2651822626192262</v>
+        <v>0.2652303339206573</v>
       </c>
       <c r="F2">
-        <v>0.2277970498659344</v>
+        <v>0.2278784373612556</v>
       </c>
       <c r="G2">
-        <v>0.2000940568061475</v>
+        <v>0.2002114814147911</v>
       </c>
       <c r="H2">
-        <v>0.1791238524900759</v>
+        <v>0.1792792571658639</v>
       </c>
       <c r="I2">
-        <v>0.1629572981464823</v>
+        <v>0.1631523878455576</v>
       </c>
       <c r="J2">
-        <v>0.1502962521286291</v>
+        <v>0.1505327330434849</v>
       </c>
       <c r="K2">
-        <v>0.140244632442422</v>
+        <v>0.1405243074933163</v>
       </c>
       <c r="L2">
-        <v>0.132169551194495</v>
+        <v>0.1324943465999601</v>
       </c>
       <c r="M2">
-        <v>0.1256146873363543</v>
+        <v>0.1259866466949703</v>
       </c>
       <c r="N2">
-        <v>0.1202448495411844</v>
+        <v>0.120666113449651</v>
       </c>
       <c r="O2">
-        <v>0.115809661984958</v>
+        <v>0.1162824421950684</v>
       </c>
       <c r="P2">
-        <v>0.11211926198629</v>
+        <v>0.1126458145980147</v>
       </c>
       <c r="Q2">
-        <v>0.1090277122533087</v>
+        <v>0.1096103121557393</v>
       </c>
       <c r="R2">
-        <v>0.1064214701639603</v>
+        <v>0.1070623877607558</v>
       </c>
       <c r="S2">
-        <v>0.1042112352102981</v>
+        <v>0.1049127158549313</v>
       </c>
       <c r="T2">
-        <v>0.1023260929983788</v>
+        <v>0.1030903392433019</v>
       </c>
       <c r="U2">
-        <v>0.1007092462161678</v>
+        <v>0.1015384028102915</v>
       </c>
       <c r="V2">
-        <v>0.09931485913748894</v>
+        <v>0.1002110006170624</v>
       </c>
       <c r="W2">
-        <v>0.09810569479568342</v>
+        <v>0.09907081546807546</v>
       </c>
       <c r="X2">
-        <v>0.09705132414461942</v>
+        <v>0.09808733024347357</v>
       </c>
       <c r="Y2">
-        <v>0.09612675331798963</v>
+        <v>0.09723545710160081</v>
       </c>
       <c r="Z2">
-        <v>0.09531136026498961</v>
+        <v>0.09649447583198782</v>
       </c>
       <c r="AA2">
-        <v>0.09458806299192765</v>
+        <v>0.0958472035962783</v>
       </c>
       <c r="AB2">
-        <v>0.09394266311618781</v>
+        <v>0.09527933977518394</v>
       </c>
       <c r="AC2">
-        <v>0.09336332351903862</v>
+        <v>0.09477894472206136</v>
       </c>
       <c r="AD2">
-        <v>0.09284014959240917</v>
+        <v>0.0943360219338269</v>
       </c>
       <c r="AE2">
-        <v>0.0923648512617964</v>
+        <v>0.09394218083773435</v>
       </c>
       <c r="AF2">
-        <v>0.09193046854331909</v>
+        <v>0.09359036296858943</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -611,97 +611,97 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3342371379733694</v>
+        <v>0.3342371379733693</v>
       </c>
       <c r="C3">
-        <v>0.2600884103700622</v>
+        <v>0.2600884103700619</v>
       </c>
       <c r="D3">
-        <v>0.2094982807385584</v>
+        <v>0.2095747326384723</v>
       </c>
       <c r="E3">
-        <v>0.1737812729593438</v>
+        <v>0.1739688027260292</v>
       </c>
       <c r="F3">
-        <v>0.1478062056211822</v>
+        <v>0.1481207031852604</v>
       </c>
       <c r="G3">
-        <v>0.1284215183106306</v>
+        <v>0.1288705991709106</v>
       </c>
       <c r="H3">
-        <v>0.1136234913644175</v>
+        <v>0.11421130872273</v>
       </c>
       <c r="I3">
-        <v>0.1020983444964886</v>
+        <v>0.1028277972905555</v>
       </c>
       <c r="J3">
-        <v>0.09296062774304134</v>
+        <v>0.09383434213204597</v>
       </c>
       <c r="K3">
-        <v>0.08559867319773791</v>
+        <v>0.08661939976239194</v>
       </c>
       <c r="L3">
-        <v>0.07958048740361857</v>
+        <v>0.08075122094942411</v>
       </c>
       <c r="M3">
-        <v>0.07459484939968322</v>
+        <v>0.07591882073239294</v>
       </c>
       <c r="N3">
-        <v>0.07041350775645613</v>
+        <v>0.07189412094251599</v>
       </c>
       <c r="O3">
-        <v>0.06686635550958203</v>
+        <v>0.06850710683645424</v>
       </c>
       <c r="P3">
-        <v>0.0638247802437872</v>
+        <v>0.06562917644864899</v>
       </c>
       <c r="Q3">
-        <v>0.06119027802446864</v>
+        <v>0.06316176192480864</v>
       </c>
       <c r="R3">
-        <v>0.0588865258755463</v>
+        <v>0.0610284127306138</v>
       </c>
       <c r="S3">
-        <v>0.0568537696268988</v>
+        <v>0.05916919511714552</v>
       </c>
       <c r="T3">
-        <v>0.05504478905818045</v>
+        <v>0.05753666854903781</v>
       </c>
       <c r="U3">
-        <v>0.05342195515580417</v>
+        <v>0.05609295332910404</v>
       </c>
       <c r="V3">
-        <v>0.05195505514358163</v>
+        <v>0.05480756483285865</v>
       </c>
       <c r="W3">
-        <v>0.0506196650388929</v>
+        <v>0.05365579403564116</v>
       </c>
       <c r="X3">
-        <v>0.04939591794911546</v>
+        <v>0.05261748257195806</v>
       </c>
       <c r="Y3">
-        <v>0.04826756203947035</v>
+        <v>0.05167608633196208</v>
       </c>
       <c r="Z3">
-        <v>0.04722123306813606</v>
+        <v>0.05081795258873682</v>
       </c>
       <c r="AA3">
-        <v>0.04624588764078556</v>
+        <v>0.05003175691644195</v>
       </c>
       <c r="AB3">
-        <v>0.0453323581151646</v>
+        <v>0.04930806093983187</v>
       </c>
       <c r="AC3">
-        <v>0.0444730004861274</v>
+        <v>0.04863896235265335</v>
       </c>
       <c r="AD3">
-        <v>0.04366141398512676</v>
+        <v>0.04801781604032077</v>
       </c>
       <c r="AE3">
-        <v>0.04289221645750461</v>
+        <v>0.04743901046422258</v>
       </c>
       <c r="AF3">
-        <v>0.04216086345828467</v>
+        <v>0.04689778733403895</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.3152491828189724</v>
       </c>
       <c r="D4">
-        <v>0.2920901338122819</v>
+        <v>0.2921808352895818</v>
       </c>
       <c r="E4">
-        <v>0.2730362342657507</v>
+        <v>0.2732869341156413</v>
       </c>
       <c r="F4">
-        <v>0.2571602931461154</v>
+        <v>0.2576258376191343</v>
       </c>
       <c r="G4">
-        <v>0.2437762168663386</v>
+        <v>0.2445014313923409</v>
       </c>
       <c r="H4">
-        <v>0.2323685565243233</v>
+        <v>0.2333911098210704</v>
       </c>
       <c r="I4">
-        <v>0.2225447577928206</v>
+        <v>0.2238970378544333</v>
       </c>
       <c r="J4">
-        <v>0.2140021885355959</v>
+        <v>0.2157125460265763</v>
       </c>
       <c r="K4">
-        <v>0.206504974211766</v>
+        <v>0.2085985562617926</v>
       </c>
       <c r="L4">
-        <v>0.1998674609624155</v>
+        <v>0.2023667775485427</v>
       </c>
       <c r="M4">
-        <v>0.1939422332429527</v>
+        <v>0.1968675480874889</v>
       </c>
       <c r="N4">
-        <v>0.1886113108705509</v>
+        <v>0.1919809169526257</v>
       </c>
       <c r="O4">
-        <v>0.183779598464328</v>
+        <v>0.1876100177520402</v>
       </c>
       <c r="P4">
-        <v>0.1793699527850692</v>
+        <v>0.1836760864135621</v>
       </c>
       <c r="Q4">
-        <v>0.1753194274524662</v>
+        <v>0.1801146737288718</v>
       </c>
       <c r="R4">
-        <v>0.1715763850330412</v>
+        <v>0.1768727367482481</v>
       </c>
       <c r="S4">
-        <v>0.1680982555280095</v>
+        <v>0.1739063840924555</v>
       </c>
       <c r="T4">
-        <v>0.1648497818256477</v>
+        <v>0.1711791130768429</v>
       </c>
       <c r="U4">
-        <v>0.1618016357404796</v>
+        <v>0.1686604204730003</v>
       </c>
       <c r="V4">
-        <v>0.158929318747507</v>
+        <v>0.1663246998130098</v>
       </c>
       <c r="W4">
-        <v>0.156212283349571</v>
+        <v>0.164150360377655</v>
       </c>
       <c r="X4">
-        <v>0.1536332268180232</v>
+        <v>0.1621191190910176</v>
       </c>
       <c r="Y4">
-        <v>0.1511775206056905</v>
+        <v>0.1602154282939831</v>
       </c>
       <c r="Z4">
-        <v>0.1488327472715674</v>
+        <v>0.1584260110400881</v>
       </c>
       <c r="AA4">
-        <v>0.1465883231283296</v>
+        <v>0.1567394820168393</v>
       </c>
       <c r="AB4">
-        <v>0.1444351896218096</v>
+        <v>0.1551460370520433</v>
       </c>
       <c r="AC4">
-        <v>0.1423655600969277</v>
+        <v>0.1536371978476677</v>
       </c>
       <c r="AD4">
-        <v>0.1403727113977616</v>
+        <v>0.1522056014001409</v>
       </c>
       <c r="AE4">
-        <v>0.1384508119069116</v>
+        <v>0.1508448257367273</v>
       </c>
       <c r="AF4">
-        <v>0.136594779308446</v>
+        <v>0.149549245283236</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.4783134654375992</v>
       </c>
       <c r="D5">
-        <v>0.2860840936150995</v>
+        <v>0.2861092839182326</v>
       </c>
       <c r="E5">
-        <v>0.1846873587161767</v>
+        <v>0.1847354336484303</v>
       </c>
       <c r="F5">
-        <v>0.1272251926528902</v>
+        <v>0.1272904665382636</v>
       </c>
       <c r="G5">
-        <v>0.09261409830870629</v>
+        <v>0.09269214967633728</v>
       </c>
       <c r="H5">
-        <v>0.07065750262279233</v>
+        <v>0.07074554139703881</v>
       </c>
       <c r="I5">
-        <v>0.05610019623555917</v>
+        <v>0.05619665931592432</v>
       </c>
       <c r="J5">
-        <v>0.04607877206925436</v>
+        <v>0.04618291280690876</v>
       </c>
       <c r="K5">
-        <v>0.03895493215143923</v>
+        <v>0.03906652632502847</v>
       </c>
       <c r="L5">
-        <v>0.03375004936985437</v>
+        <v>0.0338692032674016</v>
       </c>
       <c r="M5">
-        <v>0.02985680159272844</v>
+        <v>0.02998383013940378</v>
       </c>
       <c r="N5">
-        <v>0.02688527808974348</v>
+        <v>0.02702062754457415</v>
       </c>
       <c r="O5">
-        <v>0.02457744652915744</v>
+        <v>0.0247216448307987</v>
       </c>
       <c r="P5">
-        <v>0.02275784908859845</v>
+        <v>0.02291147327918272</v>
       </c>
       <c r="Q5">
-        <v>0.02130423289280151</v>
+        <v>0.02146788716376989</v>
       </c>
       <c r="R5">
-        <v>0.02012952730664369</v>
+        <v>0.02030382775013756</v>
       </c>
       <c r="S5">
-        <v>0.01917048176797874</v>
+        <v>0.01935604545614537</v>
       </c>
       <c r="T5">
-        <v>0.01838032428287838</v>
+        <v>0.01857776122441023</v>
       </c>
       <c r="U5">
-        <v>0.01772390979176699</v>
+        <v>0.01793381687308935</v>
       </c>
       <c r="V5">
-        <v>0.01717444690539502</v>
+        <v>0.01739740326024978</v>
       </c>
       <c r="W5">
-        <v>0.01671124691157178</v>
+        <v>0.01694781036554982</v>
       </c>
       <c r="X5">
-        <v>0.01631814811806855</v>
+        <v>0.01656885247685521</v>
       </c>
       <c r="Y5">
-        <v>0.01598239458877166</v>
+        <v>0.01624774761240048</v>
       </c>
       <c r="Z5">
-        <v>0.0156938258669812</v>
+        <v>0.01597430781659062</v>
       </c>
       <c r="AA5">
-        <v>0.01544428295249302</v>
+        <v>0.01574034562274109</v>
       </c>
       <c r="AB5">
-        <v>0.01522716691912407</v>
+        <v>0.01553923308573594</v>
       </c>
       <c r="AC5">
-        <v>0.01503710679858607</v>
+        <v>0.01536557002086946</v>
       </c>
       <c r="AD5">
-        <v>0.01486970672961254</v>
+        <v>0.0152149314548167</v>
       </c>
       <c r="AE5">
-        <v>0.01472135133885884</v>
+        <v>0.01508367326053195</v>
       </c>
       <c r="AF5">
-        <v>0.01458905441720371</v>
+        <v>0.0149687810441099</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -905,97 +905,97 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7939057911269858</v>
+        <v>0.793905791126986</v>
       </c>
       <c r="C6">
-        <v>0.4617406340821548</v>
+        <v>0.4617406340821551</v>
       </c>
       <c r="D6">
-        <v>0.2907453724101278</v>
+        <v>0.2908099665282433</v>
       </c>
       <c r="E6">
-        <v>0.195862710405651</v>
+        <v>0.1959913666032591</v>
       </c>
       <c r="F6">
-        <v>0.1397422163266547</v>
+        <v>0.1399231731607737</v>
       </c>
       <c r="G6">
-        <v>0.1046914066890056</v>
+        <v>0.1049141498965554</v>
       </c>
       <c r="H6">
-        <v>0.08175830119521531</v>
+        <v>0.08201556037329015</v>
       </c>
       <c r="I6">
-        <v>0.06614474351199638</v>
+        <v>0.06643206750070278</v>
       </c>
       <c r="J6">
-        <v>0.05514558772018963</v>
+        <v>0.05546057205364305</v>
       </c>
       <c r="K6">
-        <v>0.04716620276391428</v>
+        <v>0.04750784232987068</v>
       </c>
       <c r="L6">
-        <v>0.04122877810364035</v>
+        <v>0.04159700234193623</v>
       </c>
       <c r="M6">
-        <v>0.03671235677069721</v>
+        <v>0.03710771198047932</v>
       </c>
       <c r="N6">
-        <v>0.03321009305538184</v>
+        <v>0.03363352790289004</v>
       </c>
       <c r="O6">
-        <v>0.03044787673425096</v>
+        <v>0.03090059676181197</v>
       </c>
       <c r="P6">
-        <v>0.02823634588590578</v>
+        <v>0.02871971349711811</v>
       </c>
       <c r="Q6">
-        <v>0.0264417103496394</v>
+        <v>0.02695717483353304</v>
       </c>
       <c r="R6">
-        <v>0.02496751308220926</v>
+        <v>0.02551656072744773</v>
       </c>
       <c r="S6">
-        <v>0.02374293705836234</v>
+        <v>0.02432705497149778</v>
       </c>
       <c r="T6">
-        <v>0.02271513326822674</v>
+        <v>0.0233357827793189</v>
       </c>
       <c r="U6">
-        <v>0.02184407897574561</v>
+        <v>0.02250267594888542</v>
       </c>
       <c r="V6">
-        <v>0.02109906361444406</v>
+        <v>0.02179696388528122</v>
       </c>
       <c r="W6">
-        <v>0.02045624317887614</v>
+        <v>0.02119473191242529</v>
       </c>
       <c r="X6">
-        <v>0.01989690936360299</v>
+        <v>0.02067719348769693</v>
       </c>
       <c r="Y6">
-        <v>0.0194062452434726</v>
+        <v>0.02022944834452438</v>
       </c>
       <c r="Z6">
-        <v>0.01897241759477612</v>
+        <v>0.01983957681221853</v>
       </c>
       <c r="AA6">
-        <v>0.01858590572538448</v>
+        <v>0.01949797028017614</v>
       </c>
       <c r="AB6">
-        <v>0.01823899886942206</v>
+        <v>0.01919682992969726</v>
       </c>
       <c r="AC6">
-        <v>0.01792541535949026</v>
+        <v>0.01892978699483527</v>
       </c>
       <c r="AD6">
-        <v>0.01764001090881087</v>
+        <v>0.01869161192120321</v>
       </c>
       <c r="AE6">
-        <v>0.01737855289271285</v>
+        <v>0.01847798934137321</v>
       </c>
       <c r="AF6">
-        <v>0.01713754407467186</v>
+        <v>0.01828534233662877</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.8942357844094723</v>
       </c>
       <c r="D7">
-        <v>0.8254150967836426</v>
+        <v>0.827835918341987</v>
       </c>
       <c r="E7">
-        <v>0.7524025782823082</v>
+        <v>0.7589442711956236</v>
       </c>
       <c r="F7">
-        <v>0.6788147229405046</v>
+        <v>0.6904949105906669</v>
       </c>
       <c r="G7">
-        <v>0.6072870477625891</v>
+        <v>0.6245433085262737</v>
       </c>
       <c r="H7">
-        <v>0.5396005528229226</v>
+        <v>0.5624184713452125</v>
       </c>
       <c r="I7">
-        <v>0.476841523409577</v>
+        <v>0.5048828651873593</v>
       </c>
       <c r="J7">
-        <v>0.4195624503585721</v>
+        <v>0.4522789384797769</v>
       </c>
       <c r="K7">
-        <v>0.3679264156256722</v>
+        <v>0.4046526989639647</v>
       </c>
       <c r="L7">
-        <v>0.3218273815589799</v>
+        <v>0.3618520443299946</v>
       </c>
       <c r="M7">
-        <v>0.2809850654638015</v>
+        <v>0.3236015083005864</v>
       </c>
       <c r="N7">
-        <v>0.2450164751897241</v>
+        <v>0.2895568726852077</v>
       </c>
       <c r="O7">
-        <v>0.2134876812485416</v>
+        <v>0.2593435811634884</v>
       </c>
       <c r="P7">
-        <v>0.1859497592637065</v>
+        <v>0.2325826791786119</v>
       </c>
       <c r="Q7">
-        <v>0.1619625820020925</v>
+        <v>0.2089074814487021</v>
       </c>
       <c r="R7">
-        <v>0.1411096119535334</v>
+        <v>0.1879735578773641</v>
       </c>
       <c r="S7">
-        <v>0.1230062427900544</v>
+        <v>0.1694640468021329</v>
       </c>
       <c r="T7">
-        <v>0.1073036665725149</v>
+        <v>0.1530918029212455</v>
       </c>
       <c r="U7">
-        <v>0.09368975042199768</v>
+        <v>0.1385994803394937</v>
       </c>
       <c r="V7">
-        <v>0.08188800511293823</v>
+        <v>0.1257583346010335</v>
       </c>
       <c r="W7">
-        <v>0.07165541474847187</v>
+        <v>0.1143662888478644</v>
       </c>
       <c r="X7">
-        <v>0.06277965964502151</v>
+        <v>0.1042456336608345</v>
       </c>
       <c r="Y7">
-        <v>0.05507608979121337</v>
+        <v>0.09524060373773978</v>
       </c>
       <c r="Z7">
-        <v>0.04838468029074058</v>
+        <v>0.08721498533749754</v>
       </c>
       <c r="AA7">
-        <v>0.04256711135041917</v>
+        <v>0.0800498466510333</v>
       </c>
       <c r="AB7">
-        <v>0.03750405406509341</v>
+        <v>0.07364144138311267</v>
       </c>
       <c r="AC7">
-        <v>0.03309270196595811</v>
+        <v>0.06789930812178478</v>
       </c>
       <c r="AD7">
-        <v>0.02924456130882894</v>
+        <v>0.06274457029740692</v>
       </c>
       <c r="AE7">
-        <v>0.02588349611435798</v>
+        <v>0.05810843061101779</v>
       </c>
       <c r="AF7">
-        <v>0.02294401391088505</v>
+        <v>0.05393084753558167</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.4920265379592854</v>
       </c>
       <c r="D8">
-        <v>0.390804298423237</v>
+        <v>0.391672026506932</v>
       </c>
       <c r="E8">
-        <v>0.3154000384323611</v>
+        <v>0.3174746328947562</v>
       </c>
       <c r="F8">
-        <v>0.2580887271172048</v>
+        <v>0.2614449802854525</v>
       </c>
       <c r="G8">
-        <v>0.2137430081520847</v>
+        <v>0.2183270696348962</v>
       </c>
       <c r="H8">
-        <v>0.1788784095312549</v>
+        <v>0.1845781389090003</v>
       </c>
       <c r="I8">
-        <v>0.151075460811176</v>
+        <v>0.1577569110947327</v>
       </c>
       <c r="J8">
-        <v>0.1286208122669898</v>
+        <v>0.1361469044045336</v>
       </c>
       <c r="K8">
-        <v>0.1102790494397051</v>
+        <v>0.1185187965610726</v>
       </c>
       <c r="L8">
-        <v>0.09514443914895819</v>
+        <v>0.1039771423144519</v>
       </c>
       <c r="M8">
-        <v>0.082542675167614</v>
+        <v>0.09185945900188953</v>
       </c>
       <c r="N8">
-        <v>0.07196455708505024</v>
+        <v>0.08166852433201759</v>
       </c>
       <c r="O8">
-        <v>0.06302045916065643</v>
+        <v>0.07302615723626549</v>
       </c>
       <c r="P8">
-        <v>0.05540857704064479</v>
+        <v>0.06564115113468201</v>
       </c>
       <c r="Q8">
-        <v>0.04889245697099993</v>
+        <v>0.05928668988745295</v>
       </c>
       <c r="R8">
-        <v>0.04328487536469592</v>
+        <v>0.05378421856215366</v>
       </c>
       <c r="S8">
-        <v>0.03843612520489225</v>
+        <v>0.04899177303953475</v>
       </c>
       <c r="T8">
-        <v>0.03422540160513606</v>
+        <v>0.04479543226257402</v>
       </c>
       <c r="U8">
-        <v>0.03055439427098959</v>
+        <v>0.04110298563124608</v>
       </c>
       <c r="V8">
-        <v>0.02734247004288905</v>
+        <v>0.0378391908234299</v>
       </c>
       <c r="W8">
-        <v>0.02452301385104196</v>
+        <v>0.03494218650397718</v>
       </c>
       <c r="X8">
-        <v>0.02204062248957515</v>
+        <v>0.03236075264043541</v>
       </c>
       <c r="Y8">
-        <v>0.01984893251249259</v>
+        <v>0.03005219918889364</v>
       </c>
       <c r="Z8">
-        <v>0.0179089241293642</v>
+        <v>0.02798072506950217</v>
       </c>
       <c r="AA8">
-        <v>0.01618758566034535</v>
+        <v>0.02611613230430257</v>
       </c>
       <c r="AB8">
-        <v>0.01465685348878691</v>
+        <v>0.02443281067606946</v>
       </c>
       <c r="AC8">
-        <v>0.01329276427894754</v>
+        <v>0.02290893012004497</v>
       </c>
       <c r="AD8">
-        <v>0.01207477205476695</v>
+        <v>0.02152579387321158</v>
       </c>
       <c r="AE8">
-        <v>0.01098519431214541</v>
+        <v>0.02026731695018697</v>
       </c>
       <c r="AF8">
-        <v>0.01000875987379499</v>
+        <v>0.01911960301481505</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1205,91 +1205,91 @@
         <v>0.3533422012297993</v>
       </c>
       <c r="D9">
-        <v>0.2671506994880987</v>
+        <v>0.2672300863313042</v>
       </c>
       <c r="E9">
-        <v>0.2101123338321557</v>
+        <v>0.2102969519858427</v>
       </c>
       <c r="F9">
-        <v>0.1708937500797461</v>
+        <v>0.1711897994778908</v>
       </c>
       <c r="G9">
-        <v>0.1430237739501411</v>
+        <v>0.1434309228540287</v>
       </c>
       <c r="H9">
-        <v>0.1226454140252102</v>
+        <v>0.1231618500068542</v>
       </c>
       <c r="I9">
-        <v>0.1073706988115066</v>
+        <v>0.1079949739471942</v>
       </c>
       <c r="J9">
-        <v>0.09567032160311567</v>
+        <v>0.09640191382236639</v>
       </c>
       <c r="K9">
-        <v>0.08653488837543853</v>
+        <v>0.08737425933825849</v>
       </c>
       <c r="L9">
-        <v>0.07927994154101697</v>
+        <v>0.08022841194567998</v>
       </c>
       <c r="M9">
-        <v>0.07342999349673923</v>
+        <v>0.07448956709071214</v>
       </c>
       <c r="N9">
-        <v>0.0686474731661319</v>
+        <v>0.06982066129618011</v>
       </c>
       <c r="O9">
-        <v>0.06468799961340195</v>
+        <v>0.06597766481570906</v>
       </c>
       <c r="P9">
-        <v>0.06137152576324251</v>
+        <v>0.06278074915044379</v>
       </c>
       <c r="Q9">
-        <v>0.05856329628905911</v>
+        <v>0.06009526811395866</v>
       </c>
       <c r="R9">
-        <v>0.05616101845451318</v>
+        <v>0.05781894939099774</v>
       </c>
       <c r="S9">
-        <v>0.05408605177166285</v>
+        <v>0.05587310206024446</v>
       </c>
       <c r="T9">
-        <v>0.05227724942992069</v>
+        <v>0.05419647318748747</v>
       </c>
       <c r="U9">
-        <v>0.05068658202162133</v>
+        <v>0.05274088433379003</v>
       </c>
       <c r="V9">
-        <v>0.04927597990457561</v>
+        <v>0.05146808465462774</v>
       </c>
       <c r="W9">
-        <v>0.04801502226281176</v>
+        <v>0.05034744895195062</v>
       </c>
       <c r="X9">
-        <v>0.04687922335021258</v>
+        <v>0.04935427141854366</v>
       </c>
       <c r="Y9">
-        <v>0.04584874592302492</v>
+        <v>0.04846848529288671</v>
       </c>
       <c r="Z9">
-        <v>0.04490742435059005</v>
+        <v>0.04767369109141326</v>
       </c>
       <c r="AA9">
-        <v>0.04404201505232387</v>
+        <v>0.04695641121672957</v>
       </c>
       <c r="AB9">
-        <v>0.0432416157937295</v>
+        <v>0.04630551260426886</v>
       </c>
       <c r="AC9">
-        <v>0.04249721181569401</v>
+        <v>0.04571175549501424</v>
       </c>
       <c r="AD9">
-        <v>0.04180131823151714</v>
+        <v>0.04516743786894743</v>
       </c>
       <c r="AE9">
-        <v>0.04114769620992441</v>
+        <v>0.04466611314661666</v>
       </c>
       <c r="AF9">
-        <v>0.04053112622982066</v>
+        <v>0.04420236452405327</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.142341997113088</v>
       </c>
       <c r="C10">
-        <v>0.8084302649704133</v>
+        <v>0.8084302649704135</v>
       </c>
       <c r="D10">
-        <v>0.6051916969035017</v>
+        <v>0.60488341072815</v>
       </c>
       <c r="E10">
-        <v>0.475182464426358</v>
+        <v>0.4744672940090245</v>
       </c>
       <c r="F10">
-        <v>0.388518207109127</v>
+        <v>0.3873666828098384</v>
       </c>
       <c r="G10">
-        <v>0.3287628542025954</v>
+        <v>0.3271640465154282</v>
       </c>
       <c r="H10">
-        <v>0.2864251850563829</v>
+        <v>0.2843686135397201</v>
       </c>
       <c r="I10">
-        <v>0.2557839579023982</v>
+        <v>0.2532535472515848</v>
       </c>
       <c r="J10">
-        <v>0.2332568776104573</v>
+        <v>0.2302293973577202</v>
       </c>
       <c r="K10">
-        <v>0.2165237853933049</v>
+        <v>0.2129689067600062</v>
       </c>
       <c r="L10">
-        <v>0.2040358138738335</v>
+        <v>0.1999166909436693</v>
       </c>
       <c r="M10">
-        <v>0.1947304503601666</v>
+        <v>0.1900044181217644</v>
       </c>
       <c r="N10">
-        <v>0.1878606437567888</v>
+        <v>0.1824798923181965</v>
       </c>
       <c r="O10">
-        <v>0.1828892492397556</v>
+        <v>0.1768014355853208</v>
       </c>
       <c r="P10">
-        <v>0.1794220712641967</v>
+        <v>0.1725708666134988</v>
       </c>
       <c r="Q10">
-        <v>0.1771643521366107</v>
+        <v>0.1694899339804742</v>
       </c>
       <c r="R10">
-        <v>0.1758918673809302</v>
+        <v>0.1673313666670937</v>
       </c>
       <c r="S10">
-        <v>0.1754313339720656</v>
+        <v>0.1659192461579468</v>
       </c>
       <c r="T10">
-        <v>0.175646882888246</v>
+        <v>0.1651154491938438</v>
       </c>
       <c r="U10">
-        <v>0.1764305577133096</v>
+        <v>0.1648101207944201</v>
       </c>
       <c r="V10">
-        <v>0.1776955339878235</v>
+        <v>0.1649148706527012</v>
       </c>
       <c r="W10">
-        <v>0.1793712075353949</v>
+        <v>0.1653578400393198</v>
       </c>
       <c r="X10">
-        <v>0.1813995862390704</v>
+        <v>0.1660800730203827</v>
       </c>
       <c r="Y10">
-        <v>0.18373260376138</v>
+        <v>0.1670328101237518</v>
       </c>
       <c r="Z10">
-        <v>0.18633009402912</v>
+        <v>0.1681754431329622</v>
       </c>
       <c r="AA10">
-        <v>0.1891582452321075</v>
+        <v>0.1694739497559431</v>
       </c>
       <c r="AB10">
-        <v>0.1921884059555748</v>
+        <v>0.1708996808673222</v>
       </c>
       <c r="AC10">
-        <v>0.1953961528650572</v>
+        <v>0.1724284098610526</v>
       </c>
       <c r="AD10">
-        <v>0.198760554814567</v>
+        <v>0.1740395791116695</v>
       </c>
       <c r="AE10">
-        <v>0.2022635860560542</v>
+        <v>0.1757156963405164</v>
       </c>
       <c r="AF10">
-        <v>0.2058896538204011</v>
+        <v>0.1774418462553266</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1398,94 +1398,94 @@
         <v>0.4482735300492182</v>
       </c>
       <c r="C11">
-        <v>0.4042959484233925</v>
+        <v>0.4042959484233927</v>
       </c>
       <c r="D11">
-        <v>0.3700905638689337</v>
+        <v>0.3701180574355096</v>
       </c>
       <c r="E11">
-        <v>0.3430875462145966</v>
+        <v>0.3431628928747499</v>
       </c>
       <c r="F11">
-        <v>0.3214924304549232</v>
+        <v>0.3216315877776879</v>
       </c>
       <c r="G11">
-        <v>0.3040246592182507</v>
+        <v>0.304240816567202</v>
       </c>
       <c r="H11">
-        <v>0.2897523522142247</v>
+        <v>0.2900569219724523</v>
       </c>
       <c r="I11">
-        <v>0.2779853091318106</v>
+        <v>0.2783885333803182</v>
       </c>
       <c r="J11">
-        <v>0.2682041573552914</v>
+        <v>0.2687154799517521</v>
       </c>
       <c r="K11">
-        <v>0.2600124606369663</v>
+        <v>0.2606407539992466</v>
       </c>
       <c r="L11">
-        <v>0.2531037277788775</v>
+        <v>0.2538574287535285</v>
       </c>
       <c r="M11">
-        <v>0.2472382822041038</v>
+        <v>0.2481254707961748</v>
       </c>
       <c r="N11">
-        <v>0.2422267773299347</v>
+        <v>0.2432552196346153</v>
       </c>
       <c r="O11">
-        <v>0.2379182673602898</v>
+        <v>0.2390954363671731</v>
       </c>
       <c r="P11">
-        <v>0.2341914503995417</v>
+        <v>0.2355245335131047</v>
       </c>
       <c r="Q11">
-        <v>0.2309481537601902</v>
+        <v>0.2324440527844682</v>
       </c>
       <c r="R11">
-        <v>0.2281084263858287</v>
+        <v>0.2297737537025982</v>
       </c>
       <c r="S11">
-        <v>0.2256067985435205</v>
+        <v>0.2274478718782124</v>
       </c>
       <c r="T11">
-        <v>0.2233894000337509</v>
+        <v>0.2254122373107607</v>
       </c>
       <c r="U11">
-        <v>0.2214117174094317</v>
+        <v>0.223622032597874</v>
       </c>
       <c r="V11">
-        <v>0.2196368322373534</v>
+        <v>0.222040032683629</v>
       </c>
       <c r="W11">
-        <v>0.2180340253949069</v>
+        <v>0.2206352108672788</v>
       </c>
       <c r="X11">
-        <v>0.2165776627319404</v>
+        <v>0.2193816262232196</v>
       </c>
       <c r="Y11">
-        <v>0.2152462990893561</v>
+        <v>0.2182575293087285</v>
       </c>
       <c r="Z11">
-        <v>0.2140219532987386</v>
+        <v>0.2172446387134046</v>
       </c>
       <c r="AA11">
-        <v>0.2128895181856187</v>
+        <v>0.2163275524337132</v>
       </c>
       <c r="AB11">
-        <v>0.2118362779932771</v>
+        <v>0.2154932664718883</v>
       </c>
       <c r="AC11">
-        <v>0.2108515118863712</v>
+        <v>0.2147307793154887</v>
       </c>
       <c r="AD11">
-        <v>0.2099261668800066</v>
+        <v>0.2140307656499386</v>
       </c>
       <c r="AE11">
-        <v>0.2090525870906644</v>
+        <v>0.2133853062132957</v>
       </c>
       <c r="AF11">
-        <v>0.2082242889200572</v>
+        <v>0.2127876634206924</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1493,97 +1493,97 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4920378988480286</v>
+        <v>0.4920378988480285</v>
       </c>
       <c r="C12">
-        <v>0.4047685500301599</v>
+        <v>0.40476855003016</v>
       </c>
       <c r="D12">
-        <v>0.3412965860845477</v>
+        <v>0.3414817112139356</v>
       </c>
       <c r="E12">
-        <v>0.2938966143236279</v>
+        <v>0.2943680938175288</v>
       </c>
       <c r="F12">
-        <v>0.2576627823139029</v>
+        <v>0.258478026882475</v>
       </c>
       <c r="G12">
-        <v>0.2293830624869712</v>
+        <v>0.2305762371445974</v>
       </c>
       <c r="H12">
-        <v>0.2068962072489123</v>
+        <v>0.208489000082741</v>
       </c>
       <c r="I12">
-        <v>0.188711992162075</v>
+        <v>0.1907193179386765</v>
       </c>
       <c r="J12">
-        <v>0.1737800852461391</v>
+        <v>0.1762131136123324</v>
       </c>
       <c r="K12">
-        <v>0.1613454677802879</v>
+        <v>0.1642132152981066</v>
       </c>
       <c r="L12">
-        <v>0.1508557074050647</v>
+        <v>0.1541658517573299</v>
       </c>
       <c r="M12">
-        <v>0.1419001112029931</v>
+        <v>0.1456593844415287</v>
       </c>
       <c r="N12">
-        <v>0.1341689508812702</v>
+        <v>0.1383833082285002</v>
       </c>
       <c r="O12">
-        <v>0.1274256052181645</v>
+        <v>0.1321002787230818</v>
       </c>
       <c r="P12">
-        <v>0.1214871850278841</v>
+        <v>0.1266266830182615</v>
       </c>
       <c r="Q12">
-        <v>0.1162108337357765</v>
+        <v>0.1218189197477258</v>
       </c>
       <c r="R12">
-        <v>0.1114838921733525</v>
+        <v>0.1175635614754687</v>
       </c>
       <c r="S12">
-        <v>0.1072167373678805</v>
+        <v>0.1137702002434377</v>
       </c>
       <c r="T12">
-        <v>0.1033374999820207</v>
+        <v>0.1103661757804476</v>
       </c>
       <c r="U12">
-        <v>0.09978812048827794</v>
+        <v>0.1072926435253698</v>
       </c>
       <c r="V12">
-        <v>0.09652137209253257</v>
+        <v>0.1045016088605287</v>
       </c>
       <c r="W12">
-        <v>0.09349859051823357</v>
+        <v>0.1019536668319781</v>
       </c>
       <c r="X12">
-        <v>0.09068792667069318</v>
+        <v>0.09961626300928786</v>
       </c>
       <c r="Y12">
-        <v>0.08806299030333094</v>
+        <v>0.09746234351722205</v>
       </c>
       <c r="Z12">
-        <v>0.0856017890323772</v>
+        <v>0.09546929865657672</v>
       </c>
       <c r="AA12">
-        <v>0.08328589254157596</v>
+        <v>0.09361813011400742</v>
       </c>
       <c r="AB12">
-        <v>0.08109976997219814</v>
+        <v>0.09189278995659773</v>
       </c>
       <c r="AC12">
-        <v>0.0790302615648162</v>
+        <v>0.09027965269198704</v>
       </c>
       <c r="AD12">
-        <v>0.07706615513154216</v>
+        <v>0.08876709118377747</v>
       </c>
       <c r="AE12">
-        <v>0.07519784493055422</v>
+        <v>0.08734513419153857</v>
       </c>
       <c r="AF12">
-        <v>0.07341705570600636</v>
+        <v>0.08600518847694015</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1594,94 +1594,94 @@
         <v>0.5528235542392858</v>
       </c>
       <c r="C13">
-        <v>0.4784334037231905</v>
+        <v>0.4784334037231903</v>
       </c>
       <c r="D13">
-        <v>0.4131493996366436</v>
+        <v>0.4143109670994057</v>
       </c>
       <c r="E13">
-        <v>0.3562303604624005</v>
+        <v>0.359199060068867</v>
       </c>
       <c r="F13">
-        <v>0.306856443314313</v>
+        <v>0.3119164785480161</v>
       </c>
       <c r="G13">
-        <v>0.2641946761694472</v>
+        <v>0.2713874666862821</v>
       </c>
       <c r="H13">
-        <v>0.2274410167702107</v>
+        <v>0.2366533899592925</v>
       </c>
       <c r="I13">
-        <v>0.195845311936197</v>
+        <v>0.2068732325626962</v>
       </c>
       <c r="J13">
-        <v>0.1687242507786381</v>
+        <v>0.1813175295238162</v>
       </c>
       <c r="K13">
-        <v>0.1454662054570975</v>
+        <v>0.1593588324326329</v>
       </c>
       <c r="L13">
-        <v>0.1255308315789233</v>
+        <v>0.1404607152254891</v>
       </c>
       <c r="M13">
-        <v>0.1084454815657018</v>
+        <v>0.1241665625896748</v>
       </c>
       <c r="N13">
-        <v>0.09379985555338431</v>
+        <v>0.1100888651842309</v>
       </c>
       <c r="O13">
-        <v>0.08123984731725675</v>
+        <v>0.09789940440555729</v>
       </c>
       <c r="P13">
-        <v>0.07046120526722771</v>
+        <v>0.08732049177351456</v>
       </c>
       <c r="Q13">
-        <v>0.06120339084139258</v>
+        <v>0.07811729482192065</v>
       </c>
       <c r="R13">
-        <v>0.05324385327352498</v>
+        <v>0.07009120440321089</v>
       </c>
       <c r="S13">
-        <v>0.04639283042057692</v>
+        <v>0.06307415780721004</v>
       </c>
       <c r="T13">
-        <v>0.04048871449010016</v>
+        <v>0.05692381453760639</v>
       </c>
       <c r="U13">
-        <v>0.03539397743773039</v>
+        <v>0.05151947793575207</v>
       </c>
       <c r="V13">
-        <v>0.03099162499888035</v>
+        <v>0.04675866015274839</v>
       </c>
       <c r="W13">
-        <v>0.0271821346876385</v>
+        <v>0.04255419644257415</v>
       </c>
       <c r="X13">
-        <v>0.02388082736162511</v>
+        <v>0.0388318250106486</v>
       </c>
       <c r="Y13">
-        <v>0.0210156211601769</v>
+        <v>0.03552815928093232</v>
       </c>
       <c r="Z13">
-        <v>0.0185251187711221</v>
+        <v>0.03258898963252022</v>
       </c>
       <c r="AA13">
-        <v>0.01635698273655587</v>
+        <v>0.02996786098596017</v>
       </c>
       <c r="AB13">
-        <v>0.01446655800598169</v>
+        <v>0.02762488091356708</v>
       </c>
       <c r="AC13">
-        <v>0.01281570564226029</v>
+        <v>0.02552572017356303</v>
       </c>
       <c r="AD13">
-        <v>0.01137181615497424</v>
+        <v>0.0236407737724286</v>
       </c>
       <c r="AE13">
-        <v>0.01010697519380261</v>
+        <v>0.02194445593205985</v>
       </c>
       <c r="AF13">
-        <v>0.008997258191396367</v>
+        <v>0.02041460678382536</v>
       </c>
     </row>
   </sheetData>
